--- a/FILE-1 CHART_ OM.xlsx
+++ b/FILE-1 CHART_ OM.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5234ef3f23478d1c/Desktop/TASKS/ms exel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_280A3A1BFF874E4870493C8E1F259277DF8623E0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="6"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks description" sheetId="3" r:id="rId1"/>
@@ -15,33 +21,18 @@
     <sheet name="Data" sheetId="7" r:id="rId6"/>
     <sheet name="3-D Surface chart" sheetId="8" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'[1]DOCHODY 2'!$B$4</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'[1]DOCHODY 2'!$B$5</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'[1]DOCHODY 2'!$C$3:$E$3</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'[1]DOCHODY 2'!$C$4:$E$4</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'[1]DOCHODY 2'!$C$5:$E$5</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'[1]DOCHODY 2'!$C$6:$E$6</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'INCOME 2'!$B$4</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'INCOME 2'!$B$5</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'INCOME 2'!$B$6</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'INCOME 2'!$C$3:$E$3</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'INCOME 2'!$C$4:$E$4</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'INCOME 2'!$C$5:$E$5</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'[1]DOCHODY 2'!$B$6</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'INCOME 2'!$C$6:$E$6</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'[1]DOCHODY 2'!$C$3:$E$3</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'[1]DOCHODY 2'!$C$4:$E$4</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'[1]DOCHODY 2'!$C$5:$E$5</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'[1]DOCHODY 2'!$C$6:$E$6</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'[1]DOCHODY 2'!$B$4</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'[1]DOCHODY 2'!$B$5</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'[1]DOCHODY 2'!$B$6</definedName>
-  </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1929,8 +1920,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Arial CE"/>
@@ -2438,18 +2429,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2490,7 +2480,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -2513,9 +2502,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2621,9 +2607,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-IN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2650,7 +2636,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2724,6 +2709,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FBA0-4474-9225-15CCC7F008F6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2775,6 +2765,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FBA0-4474-9225-15CCC7F008F6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2826,6 +2821,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FBA0-4474-9225-15CCC7F008F6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2878,7 +2878,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2894,9 +2893,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-IN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2908,7 +2907,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2950,7 +2948,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-982C-4E4F-843F-2DE990595CF3}"/>
             </c:ext>
@@ -3006,7 +3004,6 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3030,7 +3027,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3049,9 +3045,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-IN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3121,6 +3117,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8D0C-4DBF-BFD8-EBA1B431C3CA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3138,6 +3139,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8D0C-4DBF-BFD8-EBA1B431C3CA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3155,6 +3161,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8D0C-4DBF-BFD8-EBA1B431C3CA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3172,6 +3183,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8D0C-4DBF-BFD8-EBA1B431C3CA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -3189,6 +3205,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8D0C-4DBF-BFD8-EBA1B431C3CA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -3206,6 +3227,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8D0C-4DBF-BFD8-EBA1B431C3CA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3305,9 +3331,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-IN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3351,7 +3377,6 @@
       <c:rotY val="20"/>
       <c:depthPercent val="200"/>
       <c:rAngAx val="0"/>
-      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -3440,7 +3465,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1632-4BBB-B378-2605582FC495}"/>
             </c:ext>
@@ -3508,7 +3533,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1632-4BBB-B378-2605582FC495}"/>
             </c:ext>
@@ -3576,7 +3601,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1632-4BBB-B378-2605582FC495}"/>
             </c:ext>
@@ -3644,7 +3669,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-1632-4BBB-B378-2605582FC495}"/>
             </c:ext>
@@ -3712,7 +3737,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-1632-4BBB-B378-2605582FC495}"/>
             </c:ext>
@@ -3835,9 +3860,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-IN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3855,7 +3880,6 @@
       <c:rotY val="56"/>
       <c:depthPercent val="300"/>
       <c:rAngAx val="0"/>
-      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -4158,7 +4182,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8741-45FB-99A0-132F679EE1EB}"/>
             </c:ext>
@@ -4173,7 +4197,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,1</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4442,7 +4466,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8741-45FB-99A0-132F679EE1EB}"/>
             </c:ext>
@@ -4457,7 +4481,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,2</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4726,7 +4750,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8741-45FB-99A0-132F679EE1EB}"/>
             </c:ext>
@@ -4741,7 +4765,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,3</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5010,7 +5034,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-8741-45FB-99A0-132F679EE1EB}"/>
             </c:ext>
@@ -5025,7 +5049,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,4</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5294,7 +5318,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-8741-45FB-99A0-132F679EE1EB}"/>
             </c:ext>
@@ -5309,7 +5333,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,5</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5578,7 +5602,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-8741-45FB-99A0-132F679EE1EB}"/>
             </c:ext>
@@ -5593,7 +5617,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,6</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5862,7 +5886,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-8741-45FB-99A0-132F679EE1EB}"/>
             </c:ext>
@@ -5877,7 +5901,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,7</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6146,7 +6170,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-8741-45FB-99A0-132F679EE1EB}"/>
             </c:ext>
@@ -6161,7 +6185,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,8</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6430,7 +6454,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-8741-45FB-99A0-132F679EE1EB}"/>
             </c:ext>
@@ -6445,7 +6469,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0,9</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6714,7 +6738,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-8741-45FB-99A0-132F679EE1EB}"/>
             </c:ext>
@@ -6998,7 +7022,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-8741-45FB-99A0-132F679EE1EB}"/>
             </c:ext>
@@ -7013,7 +7037,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1,1</c:v>
+                  <c:v>1.1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7282,7 +7306,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-8741-45FB-99A0-132F679EE1EB}"/>
             </c:ext>
@@ -7297,7 +7321,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1,2</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7566,7 +7590,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-8741-45FB-99A0-132F679EE1EB}"/>
             </c:ext>
@@ -7581,7 +7605,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1,3</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7850,7 +7874,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-8741-45FB-99A0-132F679EE1EB}"/>
             </c:ext>
@@ -7865,7 +7889,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1,4</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8134,7 +8158,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000E-8741-45FB-99A0-132F679EE1EB}"/>
             </c:ext>
@@ -8149,7 +8173,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1,5</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8418,7 +8442,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000F-8741-45FB-99A0-132F679EE1EB}"/>
             </c:ext>
@@ -8433,7 +8457,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1,6</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8702,7 +8726,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000010-8741-45FB-99A0-132F679EE1EB}"/>
             </c:ext>
@@ -8717,7 +8741,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1,7</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8986,7 +9010,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000011-8741-45FB-99A0-132F679EE1EB}"/>
             </c:ext>
@@ -9001,7 +9025,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1,8</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9270,7 +9294,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000012-8741-45FB-99A0-132F679EE1EB}"/>
             </c:ext>
@@ -9285,7 +9309,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1,9</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9554,7 +9578,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000013-8741-45FB-99A0-132F679EE1EB}"/>
             </c:ext>
@@ -9838,7 +9862,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000014-8741-45FB-99A0-132F679EE1EB}"/>
             </c:ext>
@@ -9853,7 +9877,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2,1</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10122,7 +10146,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000015-8741-45FB-99A0-132F679EE1EB}"/>
             </c:ext>
@@ -10137,7 +10161,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2,2</c:v>
+                  <c:v>2.2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10406,7 +10430,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000016-8741-45FB-99A0-132F679EE1EB}"/>
             </c:ext>
@@ -10421,7 +10445,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2,3</c:v>
+                  <c:v>2.3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10690,7 +10714,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000017-8741-45FB-99A0-132F679EE1EB}"/>
             </c:ext>
@@ -10705,7 +10729,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2,4</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10974,7 +10998,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000018-8741-45FB-99A0-132F679EE1EB}"/>
             </c:ext>
@@ -10989,7 +11013,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2,5</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11258,7 +11282,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000019-8741-45FB-99A0-132F679EE1EB}"/>
             </c:ext>
@@ -11273,7 +11297,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2,6</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11542,7 +11566,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000001A-8741-45FB-99A0-132F679EE1EB}"/>
             </c:ext>
@@ -11557,7 +11581,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2,7</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11826,7 +11850,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000001B-8741-45FB-99A0-132F679EE1EB}"/>
             </c:ext>
@@ -11841,7 +11865,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2,8</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12110,7 +12134,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000001C-8741-45FB-99A0-132F679EE1EB}"/>
             </c:ext>
@@ -12125,7 +12149,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2,9</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12394,7 +12418,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000001D-8741-45FB-99A0-132F679EE1EB}"/>
             </c:ext>
@@ -12678,7 +12702,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000001E-8741-45FB-99A0-132F679EE1EB}"/>
             </c:ext>
@@ -12693,7 +12717,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3,1</c:v>
+                  <c:v>3.1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12962,7 +12986,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000001F-8741-45FB-99A0-132F679EE1EB}"/>
             </c:ext>
@@ -12977,7 +13001,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3,2</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13246,7 +13270,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000020-8741-45FB-99A0-132F679EE1EB}"/>
             </c:ext>
@@ -13261,7 +13285,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3,3</c:v>
+                  <c:v>3.3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13530,7 +13554,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000021-8741-45FB-99A0-132F679EE1EB}"/>
             </c:ext>
@@ -13545,7 +13569,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3,4</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13814,7 +13838,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000022-8741-45FB-99A0-132F679EE1EB}"/>
             </c:ext>
@@ -13829,7 +13853,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3,5</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14098,7 +14122,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000023-8741-45FB-99A0-132F679EE1EB}"/>
             </c:ext>
@@ -14113,7 +14137,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3,6</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14382,7 +14406,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000024-8741-45FB-99A0-132F679EE1EB}"/>
             </c:ext>
@@ -14397,7 +14421,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3,7</c:v>
+                  <c:v>3.7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14666,7 +14690,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000025-8741-45FB-99A0-132F679EE1EB}"/>
             </c:ext>
@@ -14681,7 +14705,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3,8</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14950,7 +14974,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000026-8741-45FB-99A0-132F679EE1EB}"/>
             </c:ext>
@@ -14965,7 +14989,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3,9</c:v>
+                  <c:v>3.9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15234,7 +15258,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000027-8741-45FB-99A0-132F679EE1EB}"/>
             </c:ext>
@@ -15518,7 +15542,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000028-8741-45FB-99A0-132F679EE1EB}"/>
             </c:ext>
@@ -15619,10 +15643,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0">
@@ -15650,7 +15674,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -15688,7 +15718,7 @@
         <xdr:cNvPr id="1075" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15731,7 +15761,7 @@
         <xdr:cNvPr id="2102" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000036080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000036080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15774,7 +15804,7 @@
         <xdr:cNvPr id="3144" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000480C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000480C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15912,13 +15942,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9295694" cy="6067778"/>
+    <xdr:ext cx="8660296" cy="6281530"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Wykres 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15939,19 +15969,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="DOCHODY 2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15997,7 +16014,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -16030,9 +16047,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -16065,6 +16099,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -16240,308 +16291,308 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B14" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="99.85546875" customWidth="1"/>
+    <col min="2" max="2" width="99.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="40" t="s">
+    <row r="2" spans="1:2" ht="15.6">
+      <c r="B2" s="38" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B3" s="5"/>
+    <row r="3" spans="1:2">
+      <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:2" ht="26.4">
+      <c r="A4" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
-      <c r="B5" s="6"/>
+    <row r="5" spans="1:2">
+      <c r="A5" s="37"/>
+      <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
-      <c r="B7" s="41"/>
+    <row r="7" spans="1:2">
+      <c r="A7" s="37"/>
+      <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="39"/>
-      <c r="B9" s="41"/>
+    <row r="9" spans="1:2">
+      <c r="A9" s="37"/>
+      <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="39" t="s">
+    <row r="10" spans="1:2" ht="26.4">
+      <c r="A10" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="39"/>
-      <c r="B11" s="6"/>
+    <row r="11" spans="1:2">
+      <c r="A11" s="37"/>
+      <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="39" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="39"/>
-      <c r="B13" s="6"/>
+    <row r="13" spans="1:2">
+      <c r="A13" s="37"/>
+      <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="39" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="39"/>
-      <c r="B15" s="6"/>
+    <row r="15" spans="1:2">
+      <c r="A15" s="37"/>
+      <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="39" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="39"/>
-      <c r="B17" s="6"/>
+    <row r="17" spans="1:2">
+      <c r="A17" s="37"/>
+      <c r="B17" s="5"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="39" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="39"/>
-      <c r="B19" s="6"/>
+    <row r="19" spans="1:2">
+      <c r="A19" s="37"/>
+      <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="39" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
-      <c r="B21" s="6"/>
+    <row r="21" spans="1:2">
+      <c r="A21" s="37"/>
+      <c r="B21" s="5"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="39" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="39"/>
-      <c r="B23" s="6"/>
+    <row r="23" spans="1:2">
+      <c r="A23" s="37"/>
+      <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="39" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="39"/>
-      <c r="B25" s="6"/>
+    <row r="25" spans="1:2">
+      <c r="A25" s="37"/>
+      <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="39" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="39"/>
-      <c r="B27" s="6"/>
+    <row r="27" spans="1:2">
+      <c r="A27" s="37"/>
+      <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="39" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B29" s="6"/>
+    <row r="29" spans="1:2">
+      <c r="B29" s="5"/>
     </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="40" t="s">
+    <row r="30" spans="1:2" ht="15.6">
+      <c r="B30" s="38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B31" s="5"/>
+    <row r="31" spans="1:2">
+      <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="39" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="39" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="40" t="s">
+    <row r="36" spans="1:2" ht="15.6">
+      <c r="B36" s="38" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="39" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="39"/>
-      <c r="B39" s="6"/>
+    <row r="39" spans="1:2">
+      <c r="A39" s="37"/>
+      <c r="B39" s="5"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="39" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="39"/>
-      <c r="B41" s="6"/>
+    <row r="41" spans="1:2">
+      <c r="A41" s="37"/>
+      <c r="B41" s="5"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="39" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="39"/>
-      <c r="B43" s="6"/>
+    <row r="43" spans="1:2">
+      <c r="A43" s="37"/>
+      <c r="B43" s="5"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="39" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="39"/>
-      <c r="B45" s="6"/>
+    <row r="45" spans="1:2">
+      <c r="A45" s="37"/>
+      <c r="B45" s="5"/>
     </row>
-    <row r="46" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="39" t="s">
+    <row r="46" spans="1:2" ht="29.25" customHeight="1">
+      <c r="A46" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="39"/>
-      <c r="B47" s="8"/>
+    <row r="47" spans="1:2" ht="11.4" customHeight="1">
+      <c r="A47" s="37"/>
+      <c r="B47" s="7"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="39" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="39"/>
-      <c r="B49" s="6"/>
+    <row r="49" spans="1:2">
+      <c r="A49" s="37"/>
+      <c r="B49" s="5"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="39" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="39"/>
-      <c r="B51" s="6"/>
+    <row r="51" spans="1:2">
+      <c r="A51" s="37"/>
+      <c r="B51" s="5"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="39" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B54" s="40" t="s">
+    <row r="54" spans="1:2" ht="15.6">
+      <c r="B54" s="38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="B56" t="s">
         <v>48</v>
       </c>
@@ -16554,24 +16605,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:Q7"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="C2" s="11" t="s">
+    <row r="2" spans="2:17" ht="17.399999999999999">
+      <c r="C2" s="10" t="s">
         <v>49</v>
       </c>
       <c r="D2" s="3"/>
@@ -16588,210 +16639,210 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="12"/>
-      <c r="C4" s="13" t="s">
+    <row r="3" spans="2:17" ht="13.8" thickBot="1"/>
+    <row r="4" spans="2:17" ht="25.2" customHeight="1">
+      <c r="B4" s="11"/>
+      <c r="C4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <v>2015</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="13">
         <v>2016</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="Q4" s="15">
+      <c r="Q4" s="14">
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="16" t="s">
+    <row r="5" spans="2:17" ht="25.2" customHeight="1">
+      <c r="B5" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>6.5</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <v>4.8</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <v>5.4</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <v>7.6</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="17">
         <f>SUM(C5:F5)</f>
         <v>24.300000000000004</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="16">
         <v>9.4</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="16">
         <v>6.3</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="16">
         <v>7.2</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="16">
         <v>8.1999999999999993</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="17">
         <f>SUM(H5:K5)</f>
         <v>31.099999999999998</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="16">
         <v>4.3</v>
       </c>
-      <c r="N5" s="17">
+      <c r="N5" s="16">
         <v>8.1</v>
       </c>
-      <c r="O5" s="17">
+      <c r="O5" s="16">
         <v>5.8</v>
       </c>
-      <c r="P5" s="17">
+      <c r="P5" s="16">
         <v>9.1999999999999993</v>
       </c>
-      <c r="Q5" s="19">
+      <c r="Q5" s="18">
         <f>SUM(M5:P5)</f>
         <v>27.4</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="16" t="s">
+    <row r="6" spans="2:17" ht="26.4" customHeight="1">
+      <c r="B6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <v>3.4</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>6.8</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <v>5</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="17">
         <f>SUM(C6:F6)</f>
         <v>17.399999999999999</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="16">
         <v>1.8</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="16">
         <v>4.5</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="16">
         <v>3.6</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="16">
         <v>3.2</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="17">
         <f>SUM(H6:K6)</f>
         <v>13.100000000000001</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="16">
         <v>6.2</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N6" s="16">
         <v>3.8</v>
       </c>
-      <c r="O6" s="17">
+      <c r="O6" s="16">
         <v>7.3</v>
       </c>
-      <c r="P6" s="17">
+      <c r="P6" s="16">
         <v>4.7</v>
       </c>
-      <c r="Q6" s="19">
+      <c r="Q6" s="18">
         <f>SUM(M6:P6)</f>
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="20" t="s">
+    <row r="7" spans="2:17" ht="24.6" customHeight="1" thickBot="1">
+      <c r="B7" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <v>4.8</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="20">
         <v>3.1</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="20">
         <v>5.7</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="20">
         <v>6.6</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="21">
         <f>SUM(C7:F7)</f>
         <v>20.200000000000003</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="20">
         <v>5.5</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="20">
         <v>5.8</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="20">
         <v>4.4000000000000004</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="20">
         <v>6.9</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L7" s="21">
         <f>SUM(H7:K7)</f>
         <v>22.6</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="20">
         <v>7.6</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N7" s="20">
         <v>4.9000000000000004</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O7" s="20">
         <v>6.9</v>
       </c>
-      <c r="P7" s="21">
+      <c r="P7" s="20">
         <v>8.6999999999999993</v>
       </c>
-      <c r="Q7" s="23">
+      <c r="Q7" s="22">
         <f>SUM(M7:P7)</f>
         <v>28.099999999999998</v>
       </c>
@@ -16808,75 +16859,75 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13.8" thickBot="1">
       <c r="A2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="36"/>
-      <c r="C3" s="37">
+    <row r="3" spans="1:5" ht="24.6" customHeight="1" thickBot="1">
+      <c r="B3" s="34"/>
+      <c r="C3" s="35">
         <v>2015</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="35">
         <v>2016</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="36">
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="16" t="s">
+    <row r="4" spans="1:5">
+      <c r="B4" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4">
         <v>3.7</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4">
         <v>5.44</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="24">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="16" t="s">
+    <row r="5" spans="1:5">
+      <c r="B5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5">
         <v>2.4</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5">
         <v>2.7</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="24">
         <v>4.2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
+    <row r="6" spans="1:5" ht="13.8" thickBot="1">
+      <c r="B6" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="25">
         <v>3.2</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="25">
         <v>3.9</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="26">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -16892,106 +16943,106 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+    <row r="2" spans="2:5" ht="16.5" customHeight="1">
+      <c r="B2" s="27" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="7"/>
+    <row r="3" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B3" s="6"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="24"/>
-      <c r="C4" s="30">
+    <row r="4" spans="2:5">
+      <c r="B4" s="23"/>
+      <c r="C4" s="28">
         <v>2016</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="28">
         <v>2017</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="29">
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="32" t="s">
+    <row r="5" spans="2:5">
+      <c r="B5" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5">
         <v>180</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5">
         <v>210</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="24">
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="32" t="s">
+    <row r="6" spans="2:5">
+      <c r="B6" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6">
         <v>350</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6">
         <v>400</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="24">
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="32" t="s">
+    <row r="7" spans="2:5">
+      <c r="B7" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7">
         <v>145</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7">
         <v>110</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="24">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="32" t="s">
+    <row r="8" spans="2:5">
+      <c r="B8" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8">
         <v>330</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8">
         <v>350</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="24">
         <v>320</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="33" t="s">
+    <row r="9" spans="2:5" ht="13.8" thickBot="1">
+      <c r="B9" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="25">
         <v>260</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="25">
         <v>305</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="26">
         <v>360</v>
       </c>
     </row>
@@ -17007,54 +17058,54 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C1" s="7" t="s">
+    <row r="1" spans="2:8" ht="15.6">
+      <c r="C1" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D3" s="35" t="s">
+    <row r="3" spans="2:8">
+      <c r="D3" s="33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D4" s="9" t="s">
+    <row r="4" spans="2:8">
+      <c r="D4" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="42" t="s">
+    <row r="5" spans="2:8" ht="26.4">
+      <c r="B5" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D5">
@@ -17073,11 +17124,11 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="34" t="s">
+    <row r="6" spans="2:8">
+      <c r="B6" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D6">
@@ -17096,8 +17147,8 @@
         <v>2673</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C7" s="10" t="s">
+    <row r="7" spans="2:8">
+      <c r="C7" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D7">
@@ -17116,8 +17167,8 @@
         <v>4201</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C8" s="10" t="s">
+    <row r="8" spans="2:8">
+      <c r="C8" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D8">
@@ -17136,8 +17187,8 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C9" s="10" t="s">
+    <row r="9" spans="2:8">
+      <c r="C9" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D9">
@@ -17168,33 +17219,33 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:AQ46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="2:43" ht="18" x14ac:dyDescent="0.25">
-      <c r="B1" s="43" t="s">
+    <row r="1" spans="2:43" ht="17.399999999999999">
+      <c r="B1" s="40" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="2:43" x14ac:dyDescent="0.2">
-      <c r="B2" s="44" t="s">
+    <row r="2" spans="2:43">
+      <c r="B2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="42" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:43">
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="5" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:43">
       <c r="B5">
         <f>SIN(SQRT(B3^2+C3^2))</f>
         <v>0</v>
@@ -17323,7 +17374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:43">
       <c r="B6">
         <v>0</v>
       </c>
@@ -17452,7 +17503,7 @@
         <v>-0.7568024953079282</v>
       </c>
     </row>
-    <row r="7" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:43">
       <c r="B7">
         <v>0.1</v>
       </c>
@@ -17580,7 +17631,7 @@
         <v>-0.75761883092926474</v>
       </c>
     </row>
-    <row r="8" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:43">
       <c r="B8">
         <v>0.2</v>
       </c>
@@ -17708,7 +17759,7 @@
         <v>-0.7600592115282333</v>
       </c>
     </row>
-    <row r="9" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:43">
       <c r="B9">
         <v>0.3</v>
       </c>
@@ -17836,7 +17887,7 @@
         <v>-0.76409776303526966</v>
       </c>
     </row>
-    <row r="10" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:43">
       <c r="B10">
         <v>0.4</v>
       </c>
@@ -17964,7 +18015,7 @@
         <v>-0.76969137952256794</v>
       </c>
     </row>
-    <row r="11" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:43">
       <c r="B11">
         <v>0.5</v>
       </c>
@@ -18092,7 +18143,7 @@
         <v>-0.77677975560903667</v>
       </c>
     </row>
-    <row r="12" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:43">
       <c r="B12">
         <v>0.6</v>
       </c>
@@ -18220,7 +18271,7 @@
         <v>-0.78528544382066545</v>
       </c>
     </row>
-    <row r="13" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:43">
       <c r="B13">
         <v>0.7</v>
       </c>
@@ -18348,7 +18399,7 @@
         <v>-0.79511394832324767</v>
       </c>
     </row>
-    <row r="14" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:43">
       <c r="B14">
         <v>0.8</v>
       </c>
@@ -18476,7 +18527,7 @@
         <v>-0.80615386891209173</v>
       </c>
     </row>
-    <row r="15" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:43">
       <c r="B15">
         <v>0.9</v>
       </c>
@@ -18604,7 +18655,7 @@
         <v>-0.81827711106441026</v>
       </c>
     </row>
-    <row r="16" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:43">
       <c r="B16">
         <v>1</v>
       </c>
@@ -18732,7 +18783,7 @@
         <v>-0.83133917916350619</v>
       </c>
     </row>
-    <row r="17" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:43">
       <c r="B17">
         <v>1.1000000000000001</v>
       </c>
@@ -18860,7 +18911,7 @@
         <v>-0.84517957064381666</v>
       </c>
     </row>
-    <row r="18" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:43">
       <c r="B18">
         <v>1.2</v>
       </c>
@@ -18988,7 +19039,7 @@
         <v>-0.85962228876215419</v>
       </c>
     </row>
-    <row r="19" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:43">
       <c r="B19">
         <v>1.3</v>
       </c>
@@ -19116,7 +19167,7 @@
         <v>-0.87447649097765845</v>
       </c>
     </row>
-    <row r="20" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:43">
       <c r="B20">
         <v>1.4</v>
       </c>
@@ -19244,7 +19295,7 @@
         <v>-0.88953728854869918</v>
       </c>
     </row>
-    <row r="21" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:43">
       <c r="B21">
         <v>1.5</v>
       </c>
@@ -19372,7 +19423,7 @@
         <v>-0.90458671097677879</v>
       </c>
     </row>
-    <row r="22" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:43">
       <c r="B22">
         <v>1.6</v>
       </c>
@@ -19500,7 +19551,7 @@
         <v>-0.91939484640970426</v>
       </c>
     </row>
-    <row r="23" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:43">
       <c r="B23">
         <v>1.7</v>
       </c>
@@ -19628,7 +19679,7 @@
         <v>-0.93372116613601441</v>
       </c>
     </row>
-    <row r="24" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:43">
       <c r="B24">
         <v>1.8</v>
       </c>
@@ -19756,7 +19807,7 @@
         <v>-0.94731603794606689</v>
       </c>
     </row>
-    <row r="25" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:43">
       <c r="B25">
         <v>1.9</v>
       </c>
@@ -19884,7 +19935,7 @@
         <v>-0.95992242949379436</v>
       </c>
     </row>
-    <row r="26" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:43">
       <c r="B26">
         <v>2</v>
       </c>
@@ -20012,7 +20063,7 @@
         <v>-0.97127779896065325</v>
       </c>
     </row>
-    <row r="27" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:43">
       <c r="B27">
         <v>2.1</v>
       </c>
@@ -20140,7 +20191,7 @@
         <v>-0.98111616639233745</v>
       </c>
     </row>
-    <row r="28" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:43">
       <c r="B28">
         <v>2.2000000000000002</v>
       </c>
@@ -20268,7 +20319,7 @@
         <v>-0.98917035513912144</v>
       </c>
     </row>
-    <row r="29" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:43">
       <c r="B29">
         <v>2.2999999999999998</v>
       </c>
@@ -20396,7 +20447,7 @@
         <v>-0.99517438896658017</v>
       </c>
     </row>
-    <row r="30" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:43">
       <c r="B30">
         <v>2.4</v>
       </c>
@@ -20524,7 +20575,7 @@
         <v>-0.99886602669298963</v>
       </c>
     </row>
-    <row r="31" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:43">
       <c r="B31">
         <v>2.5</v>
       </c>
@@ -20652,7 +20703,7 @@
         <v>-0.99998941272346409</v>
       </c>
     </row>
-    <row r="32" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:43">
       <c r="B32">
         <v>2.6</v>
       </c>
@@ -20780,7 +20831,7 @@
         <v>-0.99829781865142098</v>
       </c>
     </row>
-    <row r="33" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:43">
       <c r="B33">
         <v>2.7</v>
       </c>
@@ -20908,7 +20959,7 @@
         <v>-0.99355644823956524</v>
       </c>
     </row>
-    <row r="34" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:43">
       <c r="B34">
         <v>2.8</v>
       </c>
@@ -21036,7 +21087,7 @@
         <v>-0.98554527562120797</v>
       </c>
     </row>
-    <row r="35" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:43">
       <c r="B35">
         <v>2.9</v>
       </c>
@@ -21164,7 +21215,7 @@
         <v>-0.97406188451613107</v>
       </c>
     </row>
-    <row r="36" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:43">
       <c r="B36">
         <v>3</v>
       </c>
@@ -21292,7 +21343,7 @@
         <v>-0.95892427466313845</v>
       </c>
     </row>
-    <row r="37" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:43">
       <c r="B37">
         <v>3.1</v>
       </c>
@@ -21420,7 +21471,7 @@
         <v>-0.9399736005560132</v>
       </c>
     </row>
-    <row r="38" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:43">
       <c r="B38">
         <v>3.2</v>
       </c>
@@ -21548,7 +21599,7 @@
         <v>-0.91707680694557059</v>
       </c>
     </row>
-    <row r="39" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:43">
       <c r="B39">
         <v>3.3</v>
       </c>
@@ -21676,7 +21727,7 @@
         <v>-0.89012912544567291</v>
       </c>
     </row>
-    <row r="40" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:43">
       <c r="B40">
         <v>3.4</v>
       </c>
@@ -21804,7 +21855,7 @@
         <v>-0.85905639695661651</v>
       </c>
     </row>
-    <row r="41" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:43">
       <c r="B41">
         <v>3.5</v>
       </c>
@@ -21932,7 +21983,7 @@
         <v>-0.82381718549014205</v>
       </c>
     </row>
-    <row r="42" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:43">
       <c r="B42">
         <v>3.6</v>
       </c>
@@ -22060,7 +22111,7 @@
         <v>-0.78440465033545914</v>
       </c>
     </row>
-    <row r="43" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:43">
       <c r="B43">
         <v>3.7</v>
       </c>
@@ -22188,7 +22239,7 @@
         <v>-0.74084814532854826</v>
       </c>
     </row>
-    <row r="44" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:43">
       <c r="B44">
         <v>3.8</v>
       </c>
@@ -22316,7 +22367,7 @@
         <v>-0.69321451625583785</v>
       </c>
     </row>
-    <row r="45" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:43">
       <c r="B45">
         <v>3.9</v>
       </c>
@@ -22444,7 +22495,7 @@
         <v>-0.64160907011144719</v>
       </c>
     </row>
-    <row r="46" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:43">
       <c r="B46">
         <v>4</v>
       </c>
